--- a/src/test/java/HangTester/nopCommerce/DataTest/Login.xlsx
+++ b/src/test/java/HangTester/nopCommerce/DataTest/Login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HangDriver\project\Project_nopCommerce\src\test\java\HangTester\nopCommerce\DataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7648D1-F2C5-46F0-802B-57B72FD59641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CB5B55-AEBB-41DC-A7BC-87708C044D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9D55CE27-C8DF-4DCA-BF65-9611EB5E7CF6}"/>
   </bookViews>
@@ -52,10 +52,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,15 +107,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -423,7 +434,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -441,7 +452,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -449,7 +460,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{7E4949F3-5E7B-4876-B5D8-2BC88BF6334C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/test/java/HangTester/nopCommerce/DataTest/Login.xlsx
+++ b/src/test/java/HangTester/nopCommerce/DataTest/Login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HangDriver\project\Project_nopCommerce\src\test\java\HangTester\nopCommerce\DataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CB5B55-AEBB-41DC-A7BC-87708C044D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EC64F0-EC3A-4FEE-86C0-10D08F6BDE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9D55CE27-C8DF-4DCA-BF65-9611EB5E7CF6}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
